--- a/0100_Research/0120_Prototypes/0122_LiDarLitev4/3_OffsetMeasurments/21116_OffsetMeasures.xlsx
+++ b/0100_Research/0120_Prototypes/0122_LiDarLitev4/3_OffsetMeasurments/21116_OffsetMeasures.xlsx
@@ -10,22 +10,22 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="262" documentId="8_{7F773238-5180-49FA-8A5E-E146E9F40568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4318E2B9-A0D2-43A3-968E-A712618C1770}"/>
   <bookViews>
-    <workbookView xWindow="6270" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{157EA456-3C2B-4537-942F-CF23FA2E11DF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{157EA456-3C2B-4537-942F-CF23FA2E11DF}"/>
   </bookViews>
   <sheets>
     <sheet name="2021-11-12_160804_LIDARlogs" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'2021-11-12_160804_LIDARlogs'!$E$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'2021-11-12_160804_LIDARlogs'!$E$2:$E$101</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'2021-11-12_160804_LIDARlogs'!$C$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'2021-11-12_160804_LIDARlogs'!$C$2:$C$101</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'2021-11-12_160804_LIDARlogs'!$D$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'2021-11-12_160804_LIDARlogs'!$D$2:$D$101</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'2021-11-12_160804_LIDARlogs'!$B$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'2021-11-12_160804_LIDARlogs'!$B$2:$B$101</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'2021-11-12_160804_LIDARlogs'!$C$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'2021-11-12_160804_LIDARlogs'!$C$2:$C$101</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'2021-11-12_160804_LIDARlogs'!$A$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'2021-11-12_160804_LIDARlogs'!$A$2:$A$101</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'2021-11-12_160804_LIDARlogs'!$E$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'2021-11-12_160804_LIDARlogs'!$E$2:$E$101</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'2021-11-12_160804_LIDARlogs'!$A$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'2021-11-12_160804_LIDARlogs'!$A$2:$A$101</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'2021-11-12_160804_LIDARlogs'!$B$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'2021-11-12_160804_LIDARlogs'!$B$2:$B$101</definedName>
     <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">'2021-11-12_160804_LIDARlogs'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -2265,7 +2265,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2303,7 +2303,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00000001-F30B-4D06-A00E-B086A97C0166}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Offset no noise</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2390,7 +2390,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2428,7 +2428,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00000001-F30B-4D06-A00E-B086A97C0166}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>Ground no noise</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2515,7 +2515,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2553,7 +2553,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00000001-F30B-4D06-A00E-B086A97C0166}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Noise 1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2765,7 +2765,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2803,7 +2803,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00000001-F30B-4D06-A00E-B086A97C0166}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>Noise 3</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8086,7 +8086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACD31AC-152B-4302-A867-527F46CDB57E}">
   <dimension ref="A1:AB107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K75" workbookViewId="0">
       <selection activeCell="M90" sqref="M90"/>
     </sheetView>
   </sheetViews>

--- a/0100_Research/0120_Prototypes/0122_LiDarLitev4/3_OffsetMeasurments/21116_OffsetMeasures.xlsx
+++ b/0100_Research/0120_Prototypes/0122_LiDarLitev4/3_OffsetMeasurments/21116_OffsetMeasures.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="262" documentId="8_{7F773238-5180-49FA-8A5E-E146E9F40568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4318E2B9-A0D2-43A3-968E-A712618C1770}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{157EA456-3C2B-4537-942F-CF23FA2E11DF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{157EA456-3C2B-4537-942F-CF23FA2E11DF}"/>
   </bookViews>
   <sheets>
     <sheet name="2021-11-12_160804_LIDARlogs" sheetId="2" r:id="rId1"/>
@@ -18,14 +18,14 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'2021-11-12_160804_LIDARlogs'!$C$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'2021-11-12_160804_LIDARlogs'!$C$2:$C$101</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'2021-11-12_160804_LIDARlogs'!$D$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'2021-11-12_160804_LIDARlogs'!$D$2:$D$101</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'2021-11-12_160804_LIDARlogs'!$E$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'2021-11-12_160804_LIDARlogs'!$E$2:$E$101</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'2021-11-12_160804_LIDARlogs'!$A$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'2021-11-12_160804_LIDARlogs'!$A$2:$A$101</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'2021-11-12_160804_LIDARlogs'!$B$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'2021-11-12_160804_LIDARlogs'!$B$2:$B$101</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'2021-11-12_160804_LIDARlogs'!$B$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'2021-11-12_160804_LIDARlogs'!$B$2:$B$101</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'2021-11-12_160804_LIDARlogs'!$A$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'2021-11-12_160804_LIDARlogs'!$A$2:$A$101</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'2021-11-12_160804_LIDARlogs'!$E$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'2021-11-12_160804_LIDARlogs'!$E$2:$E$101</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'2021-11-12_160804_LIDARlogs'!$D$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'2021-11-12_160804_LIDARlogs'!$D$2:$D$101</definedName>
     <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">'2021-11-12_160804_LIDARlogs'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -2265,7 +2265,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2303,7 +2303,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00000001-F30B-4D06-A00E-B086A97C0166}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>Offset no noise</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2390,7 +2390,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2428,7 +2428,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00000001-F30B-4D06-A00E-B086A97C0166}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Ground no noise</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2640,7 +2640,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2678,7 +2678,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00000001-F30B-4D06-A00E-B086A97C0166}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>Noise 2</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2765,7 +2765,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2803,7 +2803,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00000001-F30B-4D06-A00E-B086A97C0166}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Noise 3</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8086,8 +8086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACD31AC-152B-4302-A867-527F46CDB57E}">
   <dimension ref="A1:AB107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K75" workbookViewId="0">
-      <selection activeCell="M90" sqref="M90"/>
+    <sheetView tabSelected="1" topLeftCell="B94" workbookViewId="0">
+      <selection activeCell="X83" sqref="X83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
